--- a/public/template_import_realisasi.xlsx
+++ b/public/template_import_realisasi.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Panduan Pengisian" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -36,10 +37,37 @@
     <t>Realisasi</t>
   </si>
   <si>
-    <t>Survei xxxx</t>
-  </si>
-  <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>Berikut Identitas Kegiatan:</t>
+  </si>
+  <si>
+    <t>Survei Biaya Hidup: SBH   ;dll</t>
+  </si>
+  <si>
+    <t>Terdiri dari 3 karakter pertama merupakan identitas kegiatan yang disambung 2 digit kode bulan, dan diakhiri 2 digit kode tahun</t>
+  </si>
+  <si>
+    <t>SUSENAS = SUS</t>
+  </si>
+  <si>
+    <t>SAKERNAS = SAK</t>
+  </si>
+  <si>
+    <t>Contoh Pengisian ID Kegiatan:</t>
+  </si>
+  <si>
+    <t>SUSbbtt = SUS0324</t>
+  </si>
+  <si>
+    <t>SUSbbtt</t>
+  </si>
+  <si>
+    <t>Catatan:</t>
+  </si>
+  <si>
+    <t>SUSENAS xxxx</t>
   </si>
 </sst>
 </file>
@@ -49,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -62,8 +90,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,8 +110,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,11 +152,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,6 +195,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +525,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="116.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -458,60 +555,89 @@
       <c r="B2" s="5">
         <v>45291</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/template_import_realisasi.xlsx
+++ b/public/template_import_realisasi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -37,18 +37,12 @@
     <t>Realisasi</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
     <t>Berikut Identitas Kegiatan:</t>
   </si>
   <si>
     <t>Survei Biaya Hidup: SBH   ;dll</t>
   </si>
   <si>
-    <t>Terdiri dari 3 karakter pertama merupakan identitas kegiatan yang disambung 2 digit kode bulan, dan diakhiri 2 digit kode tahun</t>
-  </si>
-  <si>
     <t>SUSENAS = SUS</t>
   </si>
   <si>
@@ -58,16 +52,37 @@
     <t>Contoh Pengisian ID Kegiatan:</t>
   </si>
   <si>
-    <t>SUSbbtt = SUS0324</t>
-  </si>
-  <si>
-    <t>SUSbbtt</t>
-  </si>
-  <si>
     <t>Catatan:</t>
   </si>
   <si>
-    <t>SUSENAS xxxx</t>
+    <t>Terdiri dari 3 karakter pertama merupakan identitas kegiatan yang disambung 2 digit kode bulan, kemudian 2 digit kode tahun dipisah tandah strip (-) lalu diakhiri kode tipe kegiatan</t>
+  </si>
+  <si>
+    <t>Pemuktahiran = MU</t>
+  </si>
+  <si>
+    <t>Pencacahan = CC</t>
+  </si>
+  <si>
+    <t>Pengolahan = OL</t>
+  </si>
+  <si>
+    <t>Berikut Tipe Kegiatan(TK):</t>
+  </si>
+  <si>
+    <t>SUSbbtt-TK = SUS0324-MU</t>
+  </si>
+  <si>
+    <t>Tipe Kegiatan</t>
+  </si>
+  <si>
+    <t>SUS0324-MU</t>
+  </si>
+  <si>
+    <t>Pemuktahiran</t>
+  </si>
+  <si>
+    <t>PEMUKTAHIRAN SUSENAS MARET 2024</t>
   </si>
 </sst>
 </file>
@@ -196,9 +211,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -206,6 +218,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,26 +527,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="116.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="116.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,27 +558,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>45291</v>
+        <v>45268</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -573,10 +595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,56 +609,80 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
+      <c r="A7" s="12"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template_import_realisasi.xlsx
+++ b/public/template_import_realisasi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -58,15 +58,6 @@
     <t>Terdiri dari 3 karakter pertama merupakan identitas kegiatan yang disambung 2 digit kode bulan, kemudian 2 digit kode tahun dipisah tandah strip (-) lalu diakhiri kode tipe kegiatan</t>
   </si>
   <si>
-    <t>Pemuktahiran = MU</t>
-  </si>
-  <si>
-    <t>Pencacahan = CC</t>
-  </si>
-  <si>
-    <t>Pengolahan = OL</t>
-  </si>
-  <si>
     <t>Berikut Tipe Kegiatan(TK):</t>
   </si>
   <si>
@@ -79,10 +70,79 @@
     <t>SUS0324-MU</t>
   </si>
   <si>
-    <t>Pemuktahiran</t>
-  </si>
-  <si>
     <t>PEMUKTAHIRAN SUSENAS MARET 2024</t>
+  </si>
+  <si>
+    <t>PCL</t>
+  </si>
+  <si>
+    <t>PML</t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Kelurahan</t>
+  </si>
+  <si>
+    <t>Pemuktahiran = MU = 1</t>
+  </si>
+  <si>
+    <t>Pencacahan = CC = 2</t>
+  </si>
+  <si>
+    <t>Pengolahan = OL = 3</t>
+  </si>
+  <si>
+    <t>PCL/PML</t>
+  </si>
+  <si>
+    <t>Diisi Nomor Induk Kependudukan (NIK) / ID Mitra</t>
+  </si>
+  <si>
+    <t>Kode Kecamatan</t>
+  </si>
+  <si>
+    <t>5171xxx</t>
+  </si>
+  <si>
+    <t>xxx adalah 3 kode khusus kecamatan sebagai berikut:</t>
+  </si>
+  <si>
+    <t>010: DENPASAR SELATAN</t>
+  </si>
+  <si>
+    <t>020: DENPASAR TIMUR</t>
+  </si>
+  <si>
+    <t>030: DENPASAR BARAT</t>
+  </si>
+  <si>
+    <t>031: DENPASAR UTARA</t>
+  </si>
+  <si>
+    <t>Kode Kelurahan</t>
+  </si>
+  <si>
+    <t>5171xxxyyy</t>
+  </si>
+  <si>
+    <t>yyy adalah 3 kode khusus kelurahan sebagai berikut (Kecamatan Denpasar Selatan):</t>
+  </si>
+  <si>
+    <t>001: PEMOGAN</t>
+  </si>
+  <si>
+    <t>002: PEDUNGAN</t>
+  </si>
+  <si>
+    <t>003: SESETAN</t>
+  </si>
+  <si>
+    <t>004: SERANGAN ;dll.</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -112,7 +172,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,11 +261,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +312,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,15 +645,16 @@
     <col min="2" max="2" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="116.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="116.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,16 +665,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -575,15 +694,27 @@
         <v>45268</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2">
         <v>78</v>
       </c>
     </row>
@@ -595,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,25 +778,25 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,12 +808,98 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
